--- a/inv_docs/Inventario_DURA PLANTA 3_Folio_2.xlsx
+++ b/inv_docs/Inventario_DURA PLANTA 3_Folio_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>FOLIO: 2</t>
   </si>
@@ -23,7 +23,7 @@
     <t>ALMACEN: DURA PLANTA 3</t>
   </si>
   <si>
-    <t>FECHA: 2021-01-27</t>
+    <t>FECHA: 2021-02-06</t>
   </si>
   <si>
     <t>#DURA</t>
@@ -47,25 +47,19 @@
     <t>CONSUMO</t>
   </si>
   <si>
-    <t>ABR3/4</t>
-  </si>
-  <si>
-    <t>ABRAZADERA COLGANTE 19MM 3/4 CLIP 34</t>
+    <t>CONECPVC19MM3/4</t>
+  </si>
+  <si>
+    <t>CONECTOR CONDUIT PVC GRIS ROSCA EXTERIOR  19MM 3/4&amp;#34</t>
   </si>
   <si>
     <t>PIEZA</t>
   </si>
   <si>
-    <t>ABR25MM</t>
-  </si>
-  <si>
-    <t>ABRAZADERA COLGANTE 25 MM 1" CLIP 100</t>
-  </si>
-  <si>
-    <t>ABR-61/2</t>
-  </si>
-  <si>
-    <t>ABRAZADERA SIN FIN  ML-6 1/2" A 7/8" HS--6M (BANDA DELGADA)</t>
+    <t>CONEC13MM12</t>
+  </si>
+  <si>
+    <t>CONECTOR USO RUDO 19 MM 3/4 CUR 34</t>
   </si>
 </sst>
 </file>
@@ -404,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,13 +463,13 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,36 +486,13 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>150</v>
-      </c>
-      <c r="F6">
-        <v>120</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
